--- a/NFLStats/TE/TE_aggregate.xlsx
+++ b/NFLStats/TE/TE_aggregate.xlsx
@@ -33,7 +33,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill/>
     </fill>
@@ -44,6 +44,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00CCFFCC"/>
         <bgColor rgb="00CCFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFFFBD"/>
+        <bgColor rgb="00FFFFBD"/>
       </patternFill>
     </fill>
   </fills>
@@ -74,12 +80,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -445,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,6 +550,195 @@
         <v>-10.40000000000001</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" s="3" t="inlineStr">
+        <is>
+          <t>Austin Hooper</t>
+        </is>
+      </c>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>9.700000000000001</v>
+      </c>
+      <c r="D5" s="3" t="n">
+        <v>6.666666666666667</v>
+      </c>
+      <c r="E5" s="3" t="n">
+        <v>56.33333333333334</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="inlineStr">
+        <is>
+          <t>Austin Hooper</t>
+        </is>
+      </c>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>10.26666666666667</v>
+      </c>
+      <c r="D6" s="3" t="n">
+        <v>7.666666666666667</v>
+      </c>
+      <c r="E6" s="3" t="n">
+        <v>61.33333333333334</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="inlineStr">
+        <is>
+          <t>Austin Hooper</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C7" s="3" t="n">
+        <v>0.5666666666666664</v>
+      </c>
+      <c r="D7" s="3" t="n">
+        <v>1</v>
+      </c>
+      <c r="E7" s="3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="inlineStr">
+        <is>
+          <t>Chris Manhertz</t>
+        </is>
+      </c>
+      <c r="B8" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D8" s="2" t="n">
+        <v>8.466666666666667</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>72.23333333333333</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="inlineStr">
+        <is>
+          <t>Chris Manhertz</t>
+        </is>
+      </c>
+      <c r="B9" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
+        <v>8.333333333333334</v>
+      </c>
+      <c r="D9" s="2" t="n">
+        <v>5.600000000000001</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>54.16666666666666</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="inlineStr">
+        <is>
+          <t>Chris Manhertz</t>
+        </is>
+      </c>
+      <c r="B10" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
+        <v>-2.166666666666666</v>
+      </c>
+      <c r="D10" s="2" t="n">
+        <v>-2.866666666666666</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>-18.06666666666667</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="inlineStr">
+        <is>
+          <t>Marcedes Lewis</t>
+        </is>
+      </c>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C11" s="3" t="n">
+        <v>10.13333333333333</v>
+      </c>
+      <c r="D11" s="3" t="n">
+        <v>7.366666666666667</v>
+      </c>
+      <c r="E11" s="3" t="n">
+        <v>57.93333333333333</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="inlineStr">
+        <is>
+          <t>Marcedes Lewis</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C12" s="3" t="n">
+        <v>6.766666666666667</v>
+      </c>
+      <c r="D12" s="3" t="n">
+        <v>5.399999999999999</v>
+      </c>
+      <c r="E12" s="3" t="n">
+        <v>67.13333333333334</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="inlineStr">
+        <is>
+          <t>Marcedes Lewis</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C13" s="3" t="n">
+        <v>-3.366666666666668</v>
+      </c>
+      <c r="D13" s="3" t="n">
+        <v>-1.966666666666668</v>
+      </c>
+      <c r="E13" s="3" t="n">
+        <v>9.20000000000001</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/NFLStats/TE/TE_aggregate.xlsx
+++ b/NFLStats/TE/TE_aggregate.xlsx
@@ -452,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -739,6 +739,321 @@
         <v>9.20000000000001</v>
       </c>
     </row>
+    <row r="14">
+      <c r="A14" s="2" t="inlineStr">
+        <is>
+          <t>John Mundt</t>
+        </is>
+      </c>
+      <c r="B14" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="D14" s="2" t="n">
+        <v>8.666666666666666</v>
+      </c>
+      <c r="E14" s="2" t="n">
+        <v>80.96666666666667</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="inlineStr">
+        <is>
+          <t>John Mundt</t>
+        </is>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="n">
+        <v>8.333333333333334</v>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="E15" s="2" t="n">
+        <v>54.43333333333334</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="inlineStr">
+        <is>
+          <t>John Mundt</t>
+        </is>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="n">
+        <v>-1.266666666666666</v>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>-2.166666666666666</v>
+      </c>
+      <c r="E16" s="2" t="n">
+        <v>-26.53333333333333</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="3" t="inlineStr">
+        <is>
+          <t>Mike Gesicki</t>
+        </is>
+      </c>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C17" s="3" t="n">
+        <v>11.73333333333333</v>
+      </c>
+      <c r="D17" s="3" t="n">
+        <v>7.233333333333334</v>
+      </c>
+      <c r="E17" s="3" t="n">
+        <v>52.03333333333333</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="3" t="inlineStr">
+        <is>
+          <t>Mike Gesicki</t>
+        </is>
+      </c>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C18" s="3" t="n">
+        <v>9.966666666666667</v>
+      </c>
+      <c r="D18" s="3" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="E18" s="3" t="n">
+        <v>51.73333333333333</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="3" t="inlineStr">
+        <is>
+          <t>Mike Gesicki</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C19" s="3" t="n">
+        <v>-1.766666666666667</v>
+      </c>
+      <c r="D19" s="3" t="n">
+        <v>-0.4333333333333345</v>
+      </c>
+      <c r="E19" s="3" t="n">
+        <v>-0.3000000000000043</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="inlineStr">
+        <is>
+          <t>Travis Kelce</t>
+        </is>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="n">
+        <v>12.8</v>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>9.066666666666668</v>
+      </c>
+      <c r="E20" s="2" t="n">
+        <v>63.53333333333333</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="inlineStr">
+        <is>
+          <t>Travis Kelce</t>
+        </is>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="n">
+        <v>10.43333333333333</v>
+      </c>
+      <c r="D21" s="2" t="n">
+        <v>7.699999999999999</v>
+      </c>
+      <c r="E21" s="2" t="n">
+        <v>61.8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="inlineStr">
+        <is>
+          <t>Travis Kelce</t>
+        </is>
+      </c>
+      <c r="B22" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="n">
+        <v>-2.366666666666667</v>
+      </c>
+      <c r="D22" s="2" t="n">
+        <v>-1.366666666666669</v>
+      </c>
+      <c r="E22" s="2" t="n">
+        <v>-1.733333333333327</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="3" t="inlineStr">
+        <is>
+          <t>Nick Vannett</t>
+        </is>
+      </c>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C23" s="3" t="n">
+        <v>10.43333333333333</v>
+      </c>
+      <c r="D23" s="3" t="n">
+        <v>6.977777777777779</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>52.9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="3" t="inlineStr">
+        <is>
+          <t>Nick Vannett</t>
+        </is>
+      </c>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C24" s="3" t="n">
+        <v>6.544444444444444</v>
+      </c>
+      <c r="D24" s="3" t="n">
+        <v>5.333333333333333</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>80.3888888888889</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="3" t="inlineStr">
+        <is>
+          <t>Nick Vannett</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C25" s="3" t="n">
+        <v>-3.888888888888889</v>
+      </c>
+      <c r="D25" s="3" t="n">
+        <v>-1.644444444444446</v>
+      </c>
+      <c r="E25" s="3" t="n">
+        <v>27.4888888888889</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="inlineStr">
+        <is>
+          <t>Noah Fant</t>
+        </is>
+      </c>
+      <c r="B26" s="2" t="inlineStr">
+        <is>
+          <t>Group1</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="n">
+        <v>11.63333333333333</v>
+      </c>
+      <c r="D26" s="2" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="E26" s="2" t="n">
+        <v>47.26666666666667</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="inlineStr">
+        <is>
+          <t>Noah Fant</t>
+        </is>
+      </c>
+      <c r="B27" s="2" t="inlineStr">
+        <is>
+          <t>Group2</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="D27" s="2" t="n">
+        <v>8.366666666666667</v>
+      </c>
+      <c r="E27" s="2" t="n">
+        <v>57.43333333333334</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="inlineStr">
+        <is>
+          <t>Noah Fant</t>
+        </is>
+      </c>
+      <c r="B28" s="2" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="n">
+        <v>-0.6333333333333329</v>
+      </c>
+      <c r="D28" s="2" t="n">
+        <v>0.666666666666667</v>
+      </c>
+      <c r="E28" s="2" t="n">
+        <v>10.16666666666666</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
